--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Date_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Date_Small_Size.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Projects\12_UK\Git\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nws\Desktop\KWR001_SuaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543AA8B-A8C3-4BC8-8C29-A31B98167A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -116,17 +115,17 @@
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="7">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="6">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="0">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="1">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="2">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="3">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="4">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="5">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="9">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="8">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="7">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a" localSheetId="6">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a" localSheetId="0">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="1">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="2">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="3">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="4">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="5">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="9">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="8">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="7">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="6">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA" localSheetId="1">#REF!</definedName>
     <definedName name="AAA" localSheetId="2">#REF!</definedName>
@@ -368,17 +367,17 @@
     <definedName name="Ｍホ" localSheetId="7">#REF!</definedName>
     <definedName name="Ｍホ" localSheetId="6">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="0">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="1">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="2">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="3">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="4">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="5">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="9">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="8">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="7">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ" localSheetId="6">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="0">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="1">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="2">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="3">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="4">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="5">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="9">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="8">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="7">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="6">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="2">#REF!</definedName>
@@ -678,28 +677,28 @@
     <definedName name="クホ" localSheetId="7">#REF!</definedName>
     <definedName name="クホ" localSheetId="6">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="0">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="2">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="3">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="4">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="5">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="9">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="8">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="7">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ" localSheetId="6">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="0">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="2">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="3">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="4">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="5">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="9">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="8">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="7">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="6">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="0">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="1">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="2">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="3">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="4">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="5">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="9">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="8">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="7">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="6">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="0">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="1">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="2">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="3">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="4">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="5">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="9">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="8">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="7">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="6">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="サホ1" localSheetId="0">#REF!</definedName>
     <definedName name="サホ1" localSheetId="1">#REF!</definedName>
     <definedName name="サホ1" localSheetId="2">#REF!</definedName>
@@ -1194,7 +1193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="9"/>
@@ -2898,7 +2897,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 10" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -46471,7 +46470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
@@ -46728,11 +46727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="118" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="118" workbookViewId="0">
+    <sheetView showGridLines="0" showWhiteSpace="0" topLeftCell="A40" zoomScale="118" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="118" workbookViewId="0">
       <selection activeCell="X14" sqref="X14:Y14"/>
     </sheetView>
   </sheetViews>
@@ -52065,14 +52064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -52440,7 +52439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
@@ -52929,11 +52928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
@@ -53177,7 +53176,7 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準 Bold"&amp;16日別勤務表&amp;R&amp;"ＭＳ ゴシック,標準"&amp;D　&amp;T　
+    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16日別勤務表&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
     <oddFooter xml:space="preserve">&amp;L備考　未マ：マスタ未登録、漏れ：打刻漏れ、打順：打刻順序不正、遅：遅刻、早：早退、休打：休日打刻、二重：二重打刻、反映：承認反映、手：手入力、未計：未計算、申超：事前申請超過 </oddFooter>
   </headerFooter>
@@ -53185,7 +53184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AU6"/>
   <sheetViews>
@@ -53558,7 +53557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
@@ -54042,19 +54041,19 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準 Bold"&amp;16日別勤務表</oddHeader>
+    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16日別勤務表</oddHeader>
     <oddFooter xml:space="preserve">&amp;L備考　未マ：マスタ未登録、漏れ：打刻漏れ、打順：打刻順序不正、遅：遅刻、早：早退、休打：休日打刻、二重：二重打刻、反映：承認反映、手：手入力、未計：未計算、申超：事前申請超過 </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AQ4"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -55579,7 +55578,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="J7:K8"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="F14:G14"/>
@@ -55591,8 +55589,14 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A10:AU10"/>
-    <mergeCell ref="AR3:AU8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:C8"/>
@@ -55603,28 +55607,11 @@
     <mergeCell ref="T3:U4"/>
     <mergeCell ref="V3:W4"/>
     <mergeCell ref="D5:E6"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AP7:AQ8"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F3:G4"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J7:K8"/>
     <mergeCell ref="X3:Y4"/>
     <mergeCell ref="Z3:AA4"/>
-    <mergeCell ref="AB3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H3:I4"/>
     <mergeCell ref="L3:M4"/>
@@ -55636,6 +55623,16 @@
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="J5:K6"/>
+    <mergeCell ref="A10:AU10"/>
+    <mergeCell ref="AR3:AU8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="A9:AU9"/>
     <mergeCell ref="AP11:AQ11"/>
@@ -56040,13 +56037,14 @@
     <mergeCell ref="AH3:AI4"/>
     <mergeCell ref="AJ3:AK4"/>
     <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AB3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-&amp;"源ノ角ゴシック Normal,Regular"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
+    <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Regular"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
     <oddFooter xml:space="preserve">&amp;L備考　未マ：マスタ未登録、漏れ：打刻漏れ、打順：打刻順序不正、遅：遅刻、早：早退、休打：休日打刻、二重：二重打刻、反映：承認反映、手：手入力、未計：未計算、申超：事前申請超過 </oddFooter>
   </headerFooter>
@@ -56054,14 +56052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:AU35"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -59369,9 +59367,6 @@
     <row r="74" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
   </sheetData>
   <mergeCells count="1224">
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="J67:K67"/>
@@ -59396,7 +59391,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L52:M52"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="J53:K53"/>
@@ -59413,10 +59407,9 @@
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="L56:M56"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
@@ -59433,10 +59426,7 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:M49"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L52:M52"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
@@ -59453,12 +59443,10 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L31:M31"/>
@@ -59472,6 +59460,19 @@
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="A34:AU34"/>
     <mergeCell ref="A35:AU35"/>
+    <mergeCell ref="AR31:AU31"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AJ32:AK32"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
@@ -59886,9 +59887,6 @@
     <mergeCell ref="AF29:AG29"/>
     <mergeCell ref="AH29:AI29"/>
     <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="AR31:AU31"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="AN29:AO29"/>
     <mergeCell ref="AR28:AU28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="N29:O29"/>
@@ -59918,16 +59916,7 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="AL32:AM32"/>
     <mergeCell ref="AN32:AO32"/>
     <mergeCell ref="AP32:AQ32"/>
@@ -59955,6 +59944,11 @@
     <mergeCell ref="AL30:AM30"/>
     <mergeCell ref="AN30:AO30"/>
     <mergeCell ref="AP30:AQ30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="AR30:AU30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="N31:O31"/>
@@ -59972,12 +59966,21 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="AR38:AU38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AU36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="Z36:AA36"/>
     <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="A36:A37"/>
@@ -60004,21 +60007,6 @@
     <mergeCell ref="Z33:AA33"/>
     <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AU36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AD36:AE36"/>
     <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="AH36:AI36"/>
@@ -60046,6 +60034,11 @@
     <mergeCell ref="Z38:AA38"/>
     <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -60063,6 +60056,11 @@
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="AH40:AI40"/>
     <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="AL40:AM40"/>
     <mergeCell ref="AN40:AO40"/>
     <mergeCell ref="AP40:AQ40"/>
@@ -60598,8 +60596,7 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-&amp;"源ノ角ゴシック Normal,Regular"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
+    <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Regular"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
     <oddFooter xml:space="preserve">&amp;L備考　未マ：マスタ未登録、漏れ：打刻漏れ、打順：打刻順序不正、遅：遅刻、早：早退、休打：休日打刻、二重：二重打刻、反映：承認反映、手：手入力、未計：未計算、申超：事前申請超過 </oddFooter>
   </headerFooter>
@@ -60607,14 +60604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AU7"/>
+      <selection activeCell="AB4" sqref="AB4:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Date_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Date_Small_Size.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UK_Clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85797A3D-E257-4AE1-9F33-BDCE511CA5F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -1193,7 +1194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="9"/>
@@ -2525,12 +2526,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2542,6 +2537,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2909,7 +2910,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="1"/>
+    <cellStyle name="標準 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -46482,23 +46483,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AE13" activeCellId="1" sqref="N19 AE13"/>
+      <selection activeCell="D2" sqref="D1:AQ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -46738,23 +46740,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:AU53"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.28515625" style="2" customWidth="1"/>
-    <col min="50" max="57" width="2.42578125" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="1.5703125" style="2"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.33203125" style="2" customWidth="1"/>
+    <col min="50" max="57" width="2.44140625" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="1.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
@@ -48100,26 +48103,26 @@
       <c r="U27" s="184"/>
       <c r="V27" s="184"/>
       <c r="W27" s="184"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="191"/>
-      <c r="AB27" s="190"/>
-      <c r="AC27" s="191"/>
-      <c r="AD27" s="190"/>
-      <c r="AE27" s="191"/>
-      <c r="AF27" s="190"/>
-      <c r="AG27" s="191"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="191"/>
-      <c r="AJ27" s="190"/>
-      <c r="AK27" s="191"/>
-      <c r="AL27" s="190"/>
-      <c r="AM27" s="191"/>
-      <c r="AN27" s="190"/>
-      <c r="AO27" s="191"/>
-      <c r="AP27" s="190"/>
-      <c r="AQ27" s="191"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="189"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="189"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="188"/>
+      <c r="AE27" s="189"/>
+      <c r="AF27" s="188"/>
+      <c r="AG27" s="189"/>
+      <c r="AH27" s="188"/>
+      <c r="AI27" s="189"/>
+      <c r="AJ27" s="188"/>
+      <c r="AK27" s="189"/>
+      <c r="AL27" s="188"/>
+      <c r="AM27" s="189"/>
+      <c r="AN27" s="188"/>
+      <c r="AO27" s="189"/>
+      <c r="AP27" s="188"/>
+      <c r="AQ27" s="189"/>
       <c r="AR27" s="167"/>
       <c r="AS27" s="177"/>
       <c r="AT27" s="154"/>
@@ -48394,26 +48397,26 @@
       <c r="U33" s="184"/>
       <c r="V33" s="184"/>
       <c r="W33" s="184"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="191"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="191"/>
-      <c r="AB33" s="190"/>
-      <c r="AC33" s="191"/>
-      <c r="AD33" s="190"/>
-      <c r="AE33" s="191"/>
-      <c r="AF33" s="190"/>
-      <c r="AG33" s="191"/>
-      <c r="AH33" s="190"/>
-      <c r="AI33" s="191"/>
-      <c r="AJ33" s="190"/>
-      <c r="AK33" s="191"/>
-      <c r="AL33" s="190"/>
-      <c r="AM33" s="191"/>
-      <c r="AN33" s="190"/>
-      <c r="AO33" s="191"/>
-      <c r="AP33" s="190"/>
-      <c r="AQ33" s="191"/>
+      <c r="X33" s="188"/>
+      <c r="Y33" s="189"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="189"/>
+      <c r="AB33" s="188"/>
+      <c r="AC33" s="189"/>
+      <c r="AD33" s="188"/>
+      <c r="AE33" s="189"/>
+      <c r="AF33" s="188"/>
+      <c r="AG33" s="189"/>
+      <c r="AH33" s="188"/>
+      <c r="AI33" s="189"/>
+      <c r="AJ33" s="188"/>
+      <c r="AK33" s="189"/>
+      <c r="AL33" s="188"/>
+      <c r="AM33" s="189"/>
+      <c r="AN33" s="188"/>
+      <c r="AO33" s="189"/>
+      <c r="AP33" s="188"/>
+      <c r="AQ33" s="189"/>
       <c r="AR33" s="167"/>
       <c r="AS33" s="177"/>
       <c r="AT33" s="154"/>
@@ -48688,26 +48691,26 @@
       <c r="U39" s="184"/>
       <c r="V39" s="184"/>
       <c r="W39" s="184"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="191"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="191"/>
-      <c r="AB39" s="190"/>
-      <c r="AC39" s="191"/>
-      <c r="AD39" s="190"/>
-      <c r="AE39" s="191"/>
-      <c r="AF39" s="190"/>
-      <c r="AG39" s="191"/>
-      <c r="AH39" s="190"/>
-      <c r="AI39" s="191"/>
-      <c r="AJ39" s="190"/>
-      <c r="AK39" s="191"/>
-      <c r="AL39" s="190"/>
-      <c r="AM39" s="191"/>
-      <c r="AN39" s="190"/>
-      <c r="AO39" s="191"/>
-      <c r="AP39" s="190"/>
-      <c r="AQ39" s="191"/>
+      <c r="X39" s="188"/>
+      <c r="Y39" s="189"/>
+      <c r="Z39" s="188"/>
+      <c r="AA39" s="189"/>
+      <c r="AB39" s="188"/>
+      <c r="AC39" s="189"/>
+      <c r="AD39" s="188"/>
+      <c r="AE39" s="189"/>
+      <c r="AF39" s="188"/>
+      <c r="AG39" s="189"/>
+      <c r="AH39" s="188"/>
+      <c r="AI39" s="189"/>
+      <c r="AJ39" s="188"/>
+      <c r="AK39" s="189"/>
+      <c r="AL39" s="188"/>
+      <c r="AM39" s="189"/>
+      <c r="AN39" s="188"/>
+      <c r="AO39" s="189"/>
+      <c r="AP39" s="188"/>
+      <c r="AQ39" s="189"/>
       <c r="AR39" s="167"/>
       <c r="AS39" s="177"/>
       <c r="AT39" s="154"/>
@@ -49762,26 +49765,26 @@
       <c r="U60" s="184"/>
       <c r="V60" s="184"/>
       <c r="W60" s="184"/>
-      <c r="X60" s="190"/>
-      <c r="Y60" s="191"/>
-      <c r="Z60" s="190"/>
-      <c r="AA60" s="191"/>
-      <c r="AB60" s="190"/>
-      <c r="AC60" s="191"/>
-      <c r="AD60" s="190"/>
-      <c r="AE60" s="191"/>
-      <c r="AF60" s="190"/>
-      <c r="AG60" s="191"/>
-      <c r="AH60" s="190"/>
-      <c r="AI60" s="191"/>
-      <c r="AJ60" s="190"/>
-      <c r="AK60" s="191"/>
-      <c r="AL60" s="190"/>
-      <c r="AM60" s="191"/>
-      <c r="AN60" s="190"/>
-      <c r="AO60" s="191"/>
-      <c r="AP60" s="190"/>
-      <c r="AQ60" s="191"/>
+      <c r="X60" s="188"/>
+      <c r="Y60" s="189"/>
+      <c r="Z60" s="188"/>
+      <c r="AA60" s="189"/>
+      <c r="AB60" s="188"/>
+      <c r="AC60" s="189"/>
+      <c r="AD60" s="188"/>
+      <c r="AE60" s="189"/>
+      <c r="AF60" s="188"/>
+      <c r="AG60" s="189"/>
+      <c r="AH60" s="188"/>
+      <c r="AI60" s="189"/>
+      <c r="AJ60" s="188"/>
+      <c r="AK60" s="189"/>
+      <c r="AL60" s="188"/>
+      <c r="AM60" s="189"/>
+      <c r="AN60" s="188"/>
+      <c r="AO60" s="189"/>
+      <c r="AP60" s="188"/>
+      <c r="AQ60" s="189"/>
       <c r="AR60" s="167"/>
       <c r="AS60" s="177"/>
       <c r="AT60" s="154"/>
@@ -50056,26 +50059,26 @@
       <c r="U66" s="184"/>
       <c r="V66" s="184"/>
       <c r="W66" s="184"/>
-      <c r="X66" s="190"/>
-      <c r="Y66" s="191"/>
-      <c r="Z66" s="190"/>
-      <c r="AA66" s="191"/>
-      <c r="AB66" s="190"/>
-      <c r="AC66" s="191"/>
-      <c r="AD66" s="190"/>
-      <c r="AE66" s="191"/>
-      <c r="AF66" s="190"/>
-      <c r="AG66" s="191"/>
-      <c r="AH66" s="190"/>
-      <c r="AI66" s="191"/>
-      <c r="AJ66" s="190"/>
-      <c r="AK66" s="191"/>
-      <c r="AL66" s="190"/>
-      <c r="AM66" s="191"/>
-      <c r="AN66" s="190"/>
-      <c r="AO66" s="191"/>
-      <c r="AP66" s="190"/>
-      <c r="AQ66" s="191"/>
+      <c r="X66" s="188"/>
+      <c r="Y66" s="189"/>
+      <c r="Z66" s="188"/>
+      <c r="AA66" s="189"/>
+      <c r="AB66" s="188"/>
+      <c r="AC66" s="189"/>
+      <c r="AD66" s="188"/>
+      <c r="AE66" s="189"/>
+      <c r="AF66" s="188"/>
+      <c r="AG66" s="189"/>
+      <c r="AH66" s="188"/>
+      <c r="AI66" s="189"/>
+      <c r="AJ66" s="188"/>
+      <c r="AK66" s="189"/>
+      <c r="AL66" s="188"/>
+      <c r="AM66" s="189"/>
+      <c r="AN66" s="188"/>
+      <c r="AO66" s="189"/>
+      <c r="AP66" s="188"/>
+      <c r="AQ66" s="189"/>
       <c r="AR66" s="167"/>
       <c r="AS66" s="177"/>
       <c r="AT66" s="154"/>
@@ -50350,26 +50353,26 @@
       <c r="U72" s="184"/>
       <c r="V72" s="184"/>
       <c r="W72" s="184"/>
-      <c r="X72" s="190"/>
-      <c r="Y72" s="191"/>
-      <c r="Z72" s="190"/>
-      <c r="AA72" s="191"/>
-      <c r="AB72" s="190"/>
-      <c r="AC72" s="191"/>
-      <c r="AD72" s="190"/>
-      <c r="AE72" s="191"/>
-      <c r="AF72" s="190"/>
-      <c r="AG72" s="191"/>
-      <c r="AH72" s="190"/>
-      <c r="AI72" s="191"/>
-      <c r="AJ72" s="190"/>
-      <c r="AK72" s="191"/>
-      <c r="AL72" s="190"/>
-      <c r="AM72" s="191"/>
-      <c r="AN72" s="190"/>
-      <c r="AO72" s="191"/>
-      <c r="AP72" s="190"/>
-      <c r="AQ72" s="191"/>
+      <c r="X72" s="188"/>
+      <c r="Y72" s="189"/>
+      <c r="Z72" s="188"/>
+      <c r="AA72" s="189"/>
+      <c r="AB72" s="188"/>
+      <c r="AC72" s="189"/>
+      <c r="AD72" s="188"/>
+      <c r="AE72" s="189"/>
+      <c r="AF72" s="188"/>
+      <c r="AG72" s="189"/>
+      <c r="AH72" s="188"/>
+      <c r="AI72" s="189"/>
+      <c r="AJ72" s="188"/>
+      <c r="AK72" s="189"/>
+      <c r="AL72" s="188"/>
+      <c r="AM72" s="189"/>
+      <c r="AN72" s="188"/>
+      <c r="AO72" s="189"/>
+      <c r="AP72" s="188"/>
+      <c r="AQ72" s="189"/>
       <c r="AR72" s="167"/>
       <c r="AS72" s="177"/>
       <c r="AT72" s="154"/>
@@ -52074,23 +52077,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -52448,21 +52452,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D1:AQ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -52936,23 +52941,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.28515625" style="2" customWidth="1"/>
-    <col min="50" max="57" width="2.42578125" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="1.5703125" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.33203125" style="2" customWidth="1"/>
+    <col min="50" max="57" width="2.44140625" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="1.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -53190,23 +53196,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="T3" sqref="T3:U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.28515625" style="2" customWidth="1"/>
-    <col min="50" max="57" width="2.42578125" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="1.5703125" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.33203125" style="2" customWidth="1"/>
+    <col min="50" max="57" width="2.44140625" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="1.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -53562,23 +53569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="R5" sqref="R5:S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.28515625" style="2" customWidth="1"/>
-    <col min="50" max="57" width="2.42578125" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="1.5703125" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.33203125" style="2" customWidth="1"/>
+    <col min="50" max="57" width="2.44140625" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="1.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -54052,21 +54060,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="AP1" sqref="D1:AQ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -54215,7 +54224,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="1:47" ht="9.9499999999999993" customHeight="1">
+    <row r="4" spans="1:47" ht="9.9" customHeight="1">
       <c r="A4" s="58"/>
       <c r="B4" s="53"/>
       <c r="C4" s="54"/>
@@ -54313,7 +54322,7 @@
       <c r="AT5" s="60"/>
       <c r="AU5" s="60"/>
     </row>
-    <row r="6" spans="1:47" ht="9.9499999999999993" customHeight="1">
+    <row r="6" spans="1:47" ht="9.9" customHeight="1">
       <c r="A6" s="65"/>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
@@ -54411,7 +54420,7 @@
       <c r="AT7" s="60"/>
       <c r="AU7" s="60"/>
     </row>
-    <row r="8" spans="1:47" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="8" spans="1:47" ht="9.9" customHeight="1" thickBot="1">
       <c r="A8" s="59"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
@@ -55538,9 +55547,9 @@
       <c r="AT30" s="171"/>
       <c r="AU30" s="171"/>
     </row>
-    <row r="35" ht="9.9499999999999993" customHeight="1"/>
-    <row r="36" ht="9.9499999999999993" customHeight="1"/>
-    <row r="37" ht="9.9499999999999993" customHeight="1"/>
+    <row r="35" ht="9.9" customHeight="1"/>
+    <row r="36" ht="9.9" customHeight="1"/>
+    <row r="37" ht="9.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="499">
     <mergeCell ref="AH5:AI6"/>
@@ -56055,23 +56064,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AU74"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15:AG15"/>
+      <selection activeCell="D3" sqref="D1:AQ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -56470,53 +56480,53 @@
       <c r="AU8" s="196"/>
     </row>
     <row r="9" spans="1:47" ht="15" customHeight="1">
-      <c r="A9" s="189"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="189"/>
-      <c r="S9" s="189"/>
-      <c r="T9" s="189"/>
-      <c r="U9" s="189"/>
-      <c r="V9" s="189"/>
-      <c r="W9" s="189"/>
-      <c r="X9" s="189"/>
-      <c r="Y9" s="189"/>
-      <c r="Z9" s="189"/>
-      <c r="AA9" s="189"/>
-      <c r="AB9" s="189"/>
-      <c r="AC9" s="189"/>
-      <c r="AD9" s="189"/>
-      <c r="AE9" s="189"/>
-      <c r="AF9" s="189"/>
-      <c r="AG9" s="189"/>
-      <c r="AH9" s="189"/>
-      <c r="AI9" s="189"/>
-      <c r="AJ9" s="189"/>
-      <c r="AK9" s="189"/>
-      <c r="AL9" s="189"/>
-      <c r="AM9" s="189"/>
-      <c r="AN9" s="189"/>
-      <c r="AO9" s="189"/>
-      <c r="AP9" s="189"/>
-      <c r="AQ9" s="189"/>
-      <c r="AR9" s="189"/>
-      <c r="AS9" s="189"/>
-      <c r="AT9" s="189"/>
-      <c r="AU9" s="189"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="187"/>
+      <c r="AF9" s="187"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="187"/>
+      <c r="AM9" s="187"/>
+      <c r="AN9" s="187"/>
+      <c r="AO9" s="187"/>
+      <c r="AP9" s="187"/>
+      <c r="AQ9" s="187"/>
+      <c r="AR9" s="187"/>
+      <c r="AS9" s="187"/>
+      <c r="AT9" s="187"/>
+      <c r="AU9" s="187"/>
     </row>
     <row r="10" spans="1:47" ht="15" customHeight="1">
       <c r="A10" s="158"/>
@@ -57009,53 +57019,53 @@
       <c r="AU19" s="168"/>
     </row>
     <row r="20" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="188"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="188"/>
-      <c r="Z20" s="188"/>
-      <c r="AA20" s="188"/>
-      <c r="AB20" s="188"/>
-      <c r="AC20" s="188"/>
-      <c r="AD20" s="188"/>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="188"/>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="188"/>
-      <c r="AI20" s="188"/>
-      <c r="AJ20" s="188"/>
-      <c r="AK20" s="188"/>
-      <c r="AL20" s="188"/>
-      <c r="AM20" s="188"/>
-      <c r="AN20" s="188"/>
-      <c r="AO20" s="188"/>
-      <c r="AP20" s="188"/>
-      <c r="AQ20" s="188"/>
-      <c r="AR20" s="188"/>
-      <c r="AS20" s="188"/>
-      <c r="AT20" s="188"/>
-      <c r="AU20" s="188"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="186"/>
+      <c r="AA20" s="186"/>
+      <c r="AB20" s="186"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="186"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="186"/>
+      <c r="AH20" s="186"/>
+      <c r="AI20" s="186"/>
+      <c r="AJ20" s="186"/>
+      <c r="AK20" s="186"/>
+      <c r="AL20" s="186"/>
+      <c r="AM20" s="186"/>
+      <c r="AN20" s="186"/>
+      <c r="AO20" s="186"/>
+      <c r="AP20" s="186"/>
+      <c r="AQ20" s="186"/>
+      <c r="AR20" s="186"/>
+      <c r="AS20" s="186"/>
+      <c r="AT20" s="186"/>
+      <c r="AU20" s="186"/>
     </row>
     <row r="21" spans="1:47" ht="15" customHeight="1">
       <c r="A21" s="208"/>
@@ -57600,46 +57610,46 @@
       <c r="A32" s="180"/>
       <c r="B32" s="180"/>
       <c r="C32" s="181"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="190"/>
-      <c r="Y32" s="191"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="191"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="191"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="191"/>
-      <c r="AF32" s="190"/>
-      <c r="AG32" s="191"/>
-      <c r="AH32" s="190"/>
-      <c r="AI32" s="191"/>
-      <c r="AJ32" s="190"/>
-      <c r="AK32" s="191"/>
-      <c r="AL32" s="190"/>
-      <c r="AM32" s="191"/>
-      <c r="AN32" s="190"/>
-      <c r="AO32" s="191"/>
-      <c r="AP32" s="186"/>
-      <c r="AQ32" s="187"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="188"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="188"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="188"/>
+      <c r="AE32" s="189"/>
+      <c r="AF32" s="188"/>
+      <c r="AG32" s="189"/>
+      <c r="AH32" s="188"/>
+      <c r="AI32" s="189"/>
+      <c r="AJ32" s="188"/>
+      <c r="AK32" s="189"/>
+      <c r="AL32" s="188"/>
+      <c r="AM32" s="189"/>
+      <c r="AN32" s="188"/>
+      <c r="AO32" s="189"/>
+      <c r="AP32" s="190"/>
+      <c r="AQ32" s="191"/>
       <c r="AR32" s="167"/>
       <c r="AS32" s="177"/>
       <c r="AT32" s="177"/>
@@ -57695,102 +57705,102 @@
       <c r="AU33" s="177"/>
     </row>
     <row r="34" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="188"/>
-      <c r="B34" s="188"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="188"/>
-      <c r="P34" s="188"/>
-      <c r="Q34" s="188"/>
-      <c r="R34" s="188"/>
-      <c r="S34" s="188"/>
-      <c r="T34" s="188"/>
-      <c r="U34" s="188"/>
-      <c r="V34" s="188"/>
-      <c r="W34" s="188"/>
-      <c r="X34" s="188"/>
-      <c r="Y34" s="188"/>
-      <c r="Z34" s="188"/>
-      <c r="AA34" s="188"/>
-      <c r="AB34" s="188"/>
-      <c r="AC34" s="188"/>
-      <c r="AD34" s="188"/>
-      <c r="AE34" s="188"/>
-      <c r="AF34" s="188"/>
-      <c r="AG34" s="188"/>
-      <c r="AH34" s="188"/>
-      <c r="AI34" s="188"/>
-      <c r="AJ34" s="188"/>
-      <c r="AK34" s="188"/>
-      <c r="AL34" s="188"/>
-      <c r="AM34" s="188"/>
-      <c r="AN34" s="188"/>
-      <c r="AO34" s="188"/>
-      <c r="AP34" s="188"/>
-      <c r="AQ34" s="188"/>
-      <c r="AR34" s="188"/>
-      <c r="AS34" s="188"/>
-      <c r="AT34" s="188"/>
-      <c r="AU34" s="188"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="186"/>
+      <c r="T34" s="186"/>
+      <c r="U34" s="186"/>
+      <c r="V34" s="186"/>
+      <c r="W34" s="186"/>
+      <c r="X34" s="186"/>
+      <c r="Y34" s="186"/>
+      <c r="Z34" s="186"/>
+      <c r="AA34" s="186"/>
+      <c r="AB34" s="186"/>
+      <c r="AC34" s="186"/>
+      <c r="AD34" s="186"/>
+      <c r="AE34" s="186"/>
+      <c r="AF34" s="186"/>
+      <c r="AG34" s="186"/>
+      <c r="AH34" s="186"/>
+      <c r="AI34" s="186"/>
+      <c r="AJ34" s="186"/>
+      <c r="AK34" s="186"/>
+      <c r="AL34" s="186"/>
+      <c r="AM34" s="186"/>
+      <c r="AN34" s="186"/>
+      <c r="AO34" s="186"/>
+      <c r="AP34" s="186"/>
+      <c r="AQ34" s="186"/>
+      <c r="AR34" s="186"/>
+      <c r="AS34" s="186"/>
+      <c r="AT34" s="186"/>
+      <c r="AU34" s="186"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="189"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="189"/>
-      <c r="L35" s="189"/>
-      <c r="M35" s="189"/>
-      <c r="N35" s="189"/>
-      <c r="O35" s="189"/>
-      <c r="P35" s="189"/>
-      <c r="Q35" s="189"/>
-      <c r="R35" s="189"/>
-      <c r="S35" s="189"/>
-      <c r="T35" s="189"/>
-      <c r="U35" s="189"/>
-      <c r="V35" s="189"/>
-      <c r="W35" s="189"/>
-      <c r="X35" s="189"/>
-      <c r="Y35" s="189"/>
-      <c r="Z35" s="189"/>
-      <c r="AA35" s="189"/>
-      <c r="AB35" s="189"/>
-      <c r="AC35" s="189"/>
-      <c r="AD35" s="189"/>
-      <c r="AE35" s="189"/>
-      <c r="AF35" s="189"/>
-      <c r="AG35" s="189"/>
-      <c r="AH35" s="189"/>
-      <c r="AI35" s="189"/>
-      <c r="AJ35" s="189"/>
-      <c r="AK35" s="189"/>
-      <c r="AL35" s="189"/>
-      <c r="AM35" s="189"/>
-      <c r="AN35" s="189"/>
-      <c r="AO35" s="189"/>
-      <c r="AP35" s="189"/>
-      <c r="AQ35" s="189"/>
-      <c r="AR35" s="189"/>
-      <c r="AS35" s="189"/>
-      <c r="AT35" s="189"/>
-      <c r="AU35" s="189"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="187"/>
+      <c r="U35" s="187"/>
+      <c r="V35" s="187"/>
+      <c r="W35" s="187"/>
+      <c r="X35" s="187"/>
+      <c r="Y35" s="187"/>
+      <c r="Z35" s="187"/>
+      <c r="AA35" s="187"/>
+      <c r="AB35" s="187"/>
+      <c r="AC35" s="187"/>
+      <c r="AD35" s="187"/>
+      <c r="AE35" s="187"/>
+      <c r="AF35" s="187"/>
+      <c r="AG35" s="187"/>
+      <c r="AH35" s="187"/>
+      <c r="AI35" s="187"/>
+      <c r="AJ35" s="187"/>
+      <c r="AK35" s="187"/>
+      <c r="AL35" s="187"/>
+      <c r="AM35" s="187"/>
+      <c r="AN35" s="187"/>
+      <c r="AO35" s="187"/>
+      <c r="AP35" s="187"/>
+      <c r="AQ35" s="187"/>
+      <c r="AR35" s="187"/>
+      <c r="AS35" s="187"/>
+      <c r="AT35" s="187"/>
+      <c r="AU35" s="187"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
       <c r="A36" s="209"/>
@@ -58355,24 +58365,24 @@
       <c r="U47" s="184"/>
       <c r="V47" s="184"/>
       <c r="W47" s="184"/>
-      <c r="X47" s="190"/>
-      <c r="Y47" s="191"/>
-      <c r="Z47" s="190"/>
-      <c r="AA47" s="191"/>
-      <c r="AB47" s="190"/>
-      <c r="AC47" s="191"/>
-      <c r="AD47" s="190"/>
-      <c r="AE47" s="191"/>
-      <c r="AF47" s="190"/>
-      <c r="AG47" s="191"/>
-      <c r="AH47" s="190"/>
-      <c r="AI47" s="191"/>
-      <c r="AJ47" s="190"/>
-      <c r="AK47" s="191"/>
-      <c r="AL47" s="190"/>
-      <c r="AM47" s="191"/>
-      <c r="AN47" s="190"/>
-      <c r="AO47" s="191"/>
+      <c r="X47" s="188"/>
+      <c r="Y47" s="189"/>
+      <c r="Z47" s="188"/>
+      <c r="AA47" s="189"/>
+      <c r="AB47" s="188"/>
+      <c r="AC47" s="189"/>
+      <c r="AD47" s="188"/>
+      <c r="AE47" s="189"/>
+      <c r="AF47" s="188"/>
+      <c r="AG47" s="189"/>
+      <c r="AH47" s="188"/>
+      <c r="AI47" s="189"/>
+      <c r="AJ47" s="188"/>
+      <c r="AK47" s="189"/>
+      <c r="AL47" s="188"/>
+      <c r="AM47" s="189"/>
+      <c r="AN47" s="188"/>
+      <c r="AO47" s="189"/>
       <c r="AP47" s="184"/>
       <c r="AQ47" s="184"/>
       <c r="AR47" s="167"/>
@@ -59090,24 +59100,24 @@
       <c r="U62" s="184"/>
       <c r="V62" s="184"/>
       <c r="W62" s="184"/>
-      <c r="X62" s="190"/>
-      <c r="Y62" s="191"/>
-      <c r="Z62" s="190"/>
-      <c r="AA62" s="191"/>
-      <c r="AB62" s="190"/>
-      <c r="AC62" s="191"/>
-      <c r="AD62" s="190"/>
-      <c r="AE62" s="191"/>
-      <c r="AF62" s="190"/>
-      <c r="AG62" s="191"/>
-      <c r="AH62" s="190"/>
-      <c r="AI62" s="191"/>
-      <c r="AJ62" s="190"/>
-      <c r="AK62" s="191"/>
-      <c r="AL62" s="190"/>
-      <c r="AM62" s="191"/>
-      <c r="AN62" s="190"/>
-      <c r="AO62" s="191"/>
+      <c r="X62" s="188"/>
+      <c r="Y62" s="189"/>
+      <c r="Z62" s="188"/>
+      <c r="AA62" s="189"/>
+      <c r="AB62" s="188"/>
+      <c r="AC62" s="189"/>
+      <c r="AD62" s="188"/>
+      <c r="AE62" s="189"/>
+      <c r="AF62" s="188"/>
+      <c r="AG62" s="189"/>
+      <c r="AH62" s="188"/>
+      <c r="AI62" s="189"/>
+      <c r="AJ62" s="188"/>
+      <c r="AK62" s="189"/>
+      <c r="AL62" s="188"/>
+      <c r="AM62" s="189"/>
+      <c r="AN62" s="188"/>
+      <c r="AO62" s="189"/>
       <c r="AP62" s="184"/>
       <c r="AQ62" s="184"/>
       <c r="AR62" s="167"/>
@@ -59360,13 +59370,13 @@
       <c r="AT67" s="171"/>
       <c r="AU67" s="171"/>
     </row>
-    <row r="68" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="69" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="70" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="71" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="72" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="73" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="74" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
+    <row r="68" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="69" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="70" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="71" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="72" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="73" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="74" spans="1:47" ht="9.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="1224">
     <mergeCell ref="AJ6:AK7"/>
@@ -60013,7 +60023,6 @@
     <mergeCell ref="V37:W37"/>
     <mergeCell ref="X37:Y37"/>
     <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="R32:S32"/>
@@ -60039,6 +60048,7 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="AR28:AU28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="N29:O29"/>
@@ -60483,7 +60493,6 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L32:M32"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
@@ -60515,6 +60524,7 @@
     <mergeCell ref="AN31:AO31"/>
     <mergeCell ref="AP31:AQ31"/>
     <mergeCell ref="A32:C33"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="F42:G42"/>
@@ -60606,23 +60616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:AU24"/>
+      <selection activeCell="D3" sqref="D1:AQ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="43" width="2.77734375" style="2" customWidth="1"/>
+    <col min="44" max="47" width="2.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -62442,12 +62453,12 @@
       <c r="AT37" s="250"/>
       <c r="AU37" s="250"/>
     </row>
-    <row r="39" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="40" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="41" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="42" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="43" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
-    <row r="44" spans="1:47" ht="9.9499999999999993" customHeight="1"/>
+    <row r="39" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="40" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="41" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="42" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="43" spans="1:47" ht="9.9" customHeight="1"/>
+    <row r="44" spans="1:47" ht="9.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="593">
     <mergeCell ref="AN37:AO37"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Date_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Date_Small_Size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED61E22D-71B3-4C50-8988-446404DF8400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADEE84-735F-453C-AB4F-37F4BA766D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -46730,8 +46730,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14:AI14"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -47138,7 +47138,7 @@
       <c r="AT8" s="67"/>
       <c r="AU8" s="67"/>
     </row>
-    <row r="9" spans="1:50" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:50" s="1" customFormat="1" ht="13.8" customHeight="1">
       <c r="A9" s="89"/>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -47187,7 +47187,7 @@
       <c r="AT9" s="89"/>
       <c r="AU9" s="89"/>
     </row>
-    <row r="10" spans="1:50" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:50" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="89"/>
@@ -52929,13 +52929,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -53143,6 +53143,8 @@
       <c r="AT4" s="50"/>
       <c r="AU4" s="50"/>
     </row>
+    <row r="5" spans="1:47" ht="13.8" customHeight="1"/>
+    <row r="6" spans="1:47" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="AB3:AC4"/>
@@ -53184,13 +53186,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -53496,6 +53498,8 @@
       <c r="AT6" s="64"/>
       <c r="AU6" s="64"/>
     </row>
+    <row r="7" spans="1:47" ht="13.8" customHeight="1"/>
+    <row r="8" spans="1:47" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="AJ5:AK6"/>
@@ -53557,13 +53561,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -53967,6 +53971,8 @@
       <c r="AT8" s="64"/>
       <c r="AU8" s="64"/>
     </row>
+    <row r="9" spans="1:47" ht="13.8" customHeight="1"/>
+    <row r="10" spans="1:47" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="AN7:AO8"/>
@@ -54051,8 +54057,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AU9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
@@ -54456,7 +54462,7 @@
       <c r="AT8" s="67"/>
       <c r="AU8" s="67"/>
     </row>
-    <row r="9" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:47" s="1" customFormat="1" ht="13.8" customHeight="1">
       <c r="A9" s="89"/>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -54505,7 +54511,7 @@
       <c r="AT9" s="89"/>
       <c r="AU9" s="89"/>
     </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1">
+    <row r="10" spans="1:47" ht="13.8" customHeight="1">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="89"/>
@@ -54554,7 +54560,7 @@
       <c r="AT10" s="89"/>
       <c r="AU10" s="89"/>
     </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1">
+    <row r="11" spans="1:47" ht="12" customHeight="1">
       <c r="A11" s="106"/>
       <c r="B11" s="108"/>
       <c r="C11" s="108"/>
@@ -54603,7 +54609,7 @@
       <c r="AT11" s="95"/>
       <c r="AU11" s="95"/>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1">
+    <row r="12" spans="1:47" ht="12" customHeight="1">
       <c r="A12" s="106"/>
       <c r="B12" s="108"/>
       <c r="C12" s="108"/>
@@ -54652,7 +54658,7 @@
       <c r="AT12" s="95"/>
       <c r="AU12" s="95"/>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1">
+    <row r="13" spans="1:47" ht="12" customHeight="1">
       <c r="A13" s="107"/>
       <c r="B13" s="109"/>
       <c r="C13" s="110"/>
@@ -54701,7 +54707,7 @@
       <c r="AT13" s="105"/>
       <c r="AU13" s="105"/>
     </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1">
+    <row r="14" spans="1:47" ht="12" customHeight="1">
       <c r="A14" s="115"/>
       <c r="B14" s="118"/>
       <c r="C14" s="121"/>
@@ -54750,7 +54756,7 @@
       <c r="AT14" s="127"/>
       <c r="AU14" s="127"/>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1">
+    <row r="15" spans="1:47" ht="12" customHeight="1">
       <c r="A15" s="116"/>
       <c r="B15" s="119"/>
       <c r="C15" s="122"/>
@@ -54799,7 +54805,7 @@
       <c r="AT15" s="136"/>
       <c r="AU15" s="136"/>
     </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1">
+    <row r="16" spans="1:47" ht="12" customHeight="1">
       <c r="A16" s="117"/>
       <c r="B16" s="120"/>
       <c r="C16" s="123"/>
@@ -54848,7 +54854,7 @@
       <c r="AT16" s="141"/>
       <c r="AU16" s="141"/>
     </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1">
+    <row r="17" spans="1:47" ht="12" customHeight="1">
       <c r="A17" s="157"/>
       <c r="B17" s="159"/>
       <c r="C17" s="161"/>
@@ -54897,7 +54903,7 @@
       <c r="AT17" s="145"/>
       <c r="AU17" s="145"/>
     </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1">
+    <row r="18" spans="1:47" ht="12" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="160"/>
       <c r="C18" s="108"/>
@@ -54946,7 +54952,7 @@
       <c r="AT18" s="95"/>
       <c r="AU18" s="95"/>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1">
+    <row r="19" spans="1:47" ht="12" customHeight="1">
       <c r="A19" s="158"/>
       <c r="B19" s="160"/>
       <c r="C19" s="108"/>
@@ -54995,7 +55001,7 @@
       <c r="AT19" s="95"/>
       <c r="AU19" s="95"/>
     </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1">
+    <row r="20" spans="1:47" ht="12" customHeight="1">
       <c r="A20" s="150"/>
       <c r="B20" s="151"/>
       <c r="C20" s="152"/>
@@ -55044,7 +55050,7 @@
       <c r="AT20" s="164"/>
       <c r="AU20" s="164"/>
     </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1">
+    <row r="21" spans="1:47" ht="12" customHeight="1">
       <c r="A21" s="153"/>
       <c r="B21" s="153"/>
       <c r="C21" s="154"/>
@@ -55093,7 +55099,7 @@
       <c r="AT21" s="167"/>
       <c r="AU21" s="167"/>
     </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1">
+    <row r="22" spans="1:47" ht="12" customHeight="1">
       <c r="A22" s="155"/>
       <c r="B22" s="155"/>
       <c r="C22" s="156"/>
@@ -55142,7 +55148,7 @@
       <c r="AT22" s="170"/>
       <c r="AU22" s="170"/>
     </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1">
+    <row r="23" spans="1:47" ht="12" customHeight="1">
       <c r="A23" s="150"/>
       <c r="B23" s="151"/>
       <c r="C23" s="152"/>
@@ -55191,7 +55197,7 @@
       <c r="AT23" s="164"/>
       <c r="AU23" s="164"/>
     </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1">
+    <row r="24" spans="1:47" ht="12" customHeight="1">
       <c r="A24" s="155"/>
       <c r="B24" s="155"/>
       <c r="C24" s="156"/>
@@ -55240,7 +55246,7 @@
       <c r="AT24" s="170"/>
       <c r="AU24" s="170"/>
     </row>
-    <row r="25" spans="1:47" ht="15" customHeight="1">
+    <row r="25" spans="1:47" ht="12" customHeight="1">
       <c r="A25" s="150"/>
       <c r="B25" s="150"/>
       <c r="C25" s="178"/>
@@ -55289,7 +55295,7 @@
       <c r="AT25" s="173"/>
       <c r="AU25" s="173"/>
     </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1">
+    <row r="26" spans="1:47" ht="12" customHeight="1">
       <c r="A26" s="179"/>
       <c r="B26" s="179"/>
       <c r="C26" s="180"/>
@@ -55338,7 +55344,7 @@
       <c r="AT26" s="176"/>
       <c r="AU26" s="176"/>
     </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1">
+    <row r="27" spans="1:47" ht="12" customHeight="1">
       <c r="A27" s="181"/>
       <c r="B27" s="181"/>
       <c r="C27" s="182"/>
@@ -55387,7 +55393,7 @@
       <c r="AT27" s="177"/>
       <c r="AU27" s="177"/>
     </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1">
+    <row r="28" spans="1:47" ht="12" customHeight="1">
       <c r="A28" s="150"/>
       <c r="B28" s="151"/>
       <c r="C28" s="152"/>
@@ -55436,7 +55442,7 @@
       <c r="AT28" s="164"/>
       <c r="AU28" s="164"/>
     </row>
-    <row r="29" spans="1:47" ht="15" customHeight="1">
+    <row r="29" spans="1:47" ht="12" customHeight="1">
       <c r="A29" s="153"/>
       <c r="B29" s="153"/>
       <c r="C29" s="154"/>
@@ -55485,7 +55491,7 @@
       <c r="AT29" s="167"/>
       <c r="AU29" s="167"/>
     </row>
-    <row r="30" spans="1:47" ht="15" customHeight="1">
+    <row r="30" spans="1:47" ht="12" customHeight="1">
       <c r="A30" s="155"/>
       <c r="B30" s="155"/>
       <c r="C30" s="156"/>
@@ -56058,7 +56064,7 @@
   <dimension ref="A1:AU74"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
@@ -60610,7 +60616,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
